--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C708AE-2AB7-4694-91F9-702F8016BE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED256BF1-9045-4578-B7BB-1A40EE4A7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>Jannik</t>
   </si>
   <si>
-    <t>jannik.grönke@stud.hs-emden-leer.de</t>
-  </si>
-  <si>
     <t>JannikG24</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>Demonstator für einen Schrittmotor</t>
+  </si>
+  <si>
+    <t>jannik.groenke@stud.hs-emden-leer.de</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +626,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -686,7 +686,7 @@
         <v>7021861</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>50</v>
@@ -914,7 +914,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -965,19 +965,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>7021910</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1262,10 +1262,10 @@
         <v>7022006</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,7 +1509,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1569,7 +1569,7 @@
         <v>7021960</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>54</v>
@@ -1783,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1797,7 +1797,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1857,7 +1857,7 @@
         <v>7022071</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>46</v>

--- a/author.xlsx
+++ b/author.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED256BF1-9045-4578-B7BB-1A40EE4A7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA18866-6B2D-4032-8A73-68A200311B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Enno Stein" sheetId="6" r:id="rId4"/>
     <sheet name="Jan ter Veen" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="65">
   <si>
     <t>Short Description</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Supervisor workplace:</t>
   </si>
   <si>
-    <t>&lt;Einstein, Albert&gt;</t>
-  </si>
-  <si>
     <t>&lt;00494921 807-1001&gt;</t>
   </si>
   <si>
     <t>Email:</t>
   </si>
   <si>
-    <t>&lt;albert.einstein@hs-emden-leer.de&gt;</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>maik.theilmann@stud.hs-emden-leer.de</t>
   </si>
   <si>
-    <t>https://github.com/janterveen/SchrittmotorArduino</t>
-  </si>
-  <si>
     <t>Enno</t>
   </si>
   <si>
@@ -225,6 +216,9 @@
   </si>
   <si>
     <t>jannik.groenke@stud.hs-emden-leer.de</t>
+  </si>
+  <si>
+    <t>https://github.com/janterveen/A24-27-DemonstratorSchrittmotor.git</t>
   </si>
 </sst>
 </file>
@@ -612,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +620,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -638,19 +632,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -660,44 +654,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>7021861</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,7 +704,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45365</v>
@@ -718,7 +712,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45453</v>
@@ -726,15 +720,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -766,17 +760,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +786,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,17 +796,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,10 +819,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,15 +830,15 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,6 +885,7 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{E1A53197-A63A-4035-9CF9-AFC51521A611}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{16F87386-211A-472E-BDC6-B0770C7A4D6D}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{48CFA742-0E7A-4E65-9458-014D4ED32547}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -901,7 +896,7 @@
   <dimension ref="A2:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +909,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -926,19 +921,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -948,44 +943,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>7021910</v>
       </c>
       <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -998,7 +993,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45365</v>
@@ -1006,7 +1001,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45453</v>
@@ -1014,15 +1009,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1054,17 +1049,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1090,17 +1085,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,10 +1108,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1124,15 +1119,15 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,6 +1174,7 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{ED80BBA3-501F-48EA-A1A3-B83729D940A1}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{8B5085B3-71BA-47E2-B398-09F397B44C29}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{40A16E2A-21B7-4244-B048-C6464D5D2098}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1188,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1198,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1214,19 +1210,19 @@
     </row>
     <row r="6" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1236,36 +1232,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7">
         <v>7022006</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,10 +1269,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,12 +1280,12 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>45013</v>
@@ -1297,7 +1293,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>45092</v>
@@ -1305,15 +1301,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1337,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1345,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1353,17 +1349,17 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1389,26 +1385,26 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,10 +1417,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,15 +1428,15 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,6 +1482,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" xr:uid="{4601E9E3-3B68-48B8-88F5-4AAF848DE929}"/>
+    <hyperlink ref="B46" r:id="rId2" xr:uid="{886BDA86-B1B1-4789-A61D-E0D66BB30B51}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{709F78AF-8424-4F1B-AF1A-24B98D8129C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1496,7 +1494,7 @@
   <dimension ref="A2:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1507,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1521,19 +1519,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1543,44 +1541,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>7021960</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1593,7 +1591,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45365</v>
@@ -1601,7 +1599,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45453</v>
@@ -1609,15 +1607,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1649,17 +1647,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1667,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,17 +1683,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,10 +1706,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1719,15 +1717,15 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,6 +1772,7 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{DCA9C11D-D7E5-42DE-907A-A89C68A1E30F}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{52EE2173-739E-49D7-B50D-533FB5AE7B8A}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{0C268C0B-9E47-49D8-A082-4FAC6C9033FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1783,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1796,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1809,19 +1808,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>51</v>
+      <c r="A8" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1831,44 +1830,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>7022071</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1880,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>45365</v>
@@ -1889,7 +1888,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45453</v>
@@ -1897,15 +1896,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1929,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1937,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1945,17 +1944,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1963,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,17 +1980,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2004,10 +2003,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2015,15 +2014,15 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,8 +2069,9 @@
   <hyperlinks>
     <hyperlink ref="B44" r:id="rId1" xr:uid="{CA7E7ECB-D2A4-4044-9E68-15112D700072}"/>
     <hyperlink ref="E11" r:id="rId2" xr:uid="{5C359789-3E7B-4A32-B955-6A130E07ACFE}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{A29E4B6E-9E99-40E5-92BA-2D674CFD6F4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA18866-6B2D-4032-8A73-68A200311B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3275C5-7240-40E0-AC23-57E85AAD60D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Enno Stein" sheetId="6" r:id="rId4"/>
     <sheet name="Jan ter Veen" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
   <si>
     <t>Short Description</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>https://github.com/janterveen/A24-27-DemonstratorSchrittmotor.git</t>
+  </si>
+  <si>
+    <t>(+49)173 9798953</t>
+  </si>
+  <si>
+    <t>Gartenstraße 18</t>
+  </si>
+  <si>
+    <t>26169 Friesoythe</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -606,16 +618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
@@ -738,7 +750,9 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>36095</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -749,11 +763,17 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -793,20 +813,32 @@
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>

--- a/author.xlsx
+++ b/author.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3275C5-7240-40E0-AC23-57E85AAD60D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A2476-C7F9-4010-BF7B-32B1C1400904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="16620" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="78">
   <si>
     <t>Short Description</t>
   </si>
@@ -95,21 +95,12 @@
     <t xml:space="preserve">Home: </t>
   </si>
   <si>
-    <t>&lt;04921 123 456&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Study: </t>
   </si>
   <si>
-    <t>&lt;04921 807 1429&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Workplace: </t>
   </si>
   <si>
-    <t>&lt;04921 807 1428&gt;</t>
-  </si>
-  <si>
     <t>Name, Surname</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
     <t>lars.hanneken@stud.hs-emden-leer.de</t>
   </si>
   <si>
-    <t>Demonstator für einen Schrittmotor</t>
-  </si>
-  <si>
     <t>jannik.groenke@stud.hs-emden-leer.de</t>
   </si>
   <si>
@@ -231,6 +219,45 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>(+49)15902684305</t>
+  </si>
+  <si>
+    <t>Birkenweg 10</t>
+  </si>
+  <si>
+    <t>26903 Surwold</t>
+  </si>
+  <si>
+    <t>(+49)1629384026</t>
+  </si>
+  <si>
+    <t>Lessingstraße 25</t>
+  </si>
+  <si>
+    <t>26506 Norden</t>
+  </si>
+  <si>
+    <t>(+49)15206279684</t>
+  </si>
+  <si>
+    <t>(+49)21 123 456&gt;</t>
+  </si>
+  <si>
+    <t>(+49)21 807 1429</t>
+  </si>
+  <si>
+    <t>(+49)21 807 1428</t>
+  </si>
+  <si>
+    <t>A24-27</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>Demonstrator für einen Schrittmotor</t>
   </si>
 </sst>
 </file>
@@ -618,9 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -632,10 +657,18 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -644,19 +677,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -675,27 +708,27 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>7021861</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,10 +765,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +797,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +805,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,17 +813,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -806,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -814,7 +847,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -822,23 +855,23 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -851,10 +884,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +961,7 @@
   <dimension ref="A2:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,10 +974,18 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -953,19 +994,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -984,27 +1025,27 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>7021910</v>
       </c>
       <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,7 +1053,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,10 +1082,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1100,9 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>36583</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1070,28 +1113,34 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,27 +1156,39 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1140,10 +1201,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1159,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1217,7 +1278,7 @@
   <dimension ref="A2:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,10 +1291,18 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1242,19 +1311,19 @@
     </row>
     <row r="6" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1273,27 +1342,27 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>7022006</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1304,7 +1373,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,7 +1389,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>45013</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,15 +1397,15 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>45092</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1365,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1373,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1381,17 +1450,17 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1407,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,23 +1489,23 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1449,10 +1518,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1595,7 @@
   <dimension ref="A2:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1608,18 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1551,19 +1628,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1582,27 +1659,27 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>7021960</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1610,7 +1687,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,10 +1716,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1657,7 +1734,9 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>36570</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1668,28 +1747,34 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1705,27 +1790,39 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,10 +1835,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +1854,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,10 +1925,18 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1840,19 +1945,19 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1871,27 +1976,27 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>7022071</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,7 +2004,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,10 +2033,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,17 +2081,17 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2002,27 +2107,39 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,10 +2152,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A2476-C7F9-4010-BF7B-32B1C1400904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1EA94-191F-41EA-A71E-4EC0298E2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="16620" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
   <si>
     <t>Short Description</t>
   </si>
@@ -146,9 +146,6 @@
     <t>elmar.wings@hs-emden-leer.de</t>
   </si>
   <si>
-    <t>Tjalkweg  4</t>
-  </si>
-  <si>
     <t>jan.ter.veen@stud.hs-emden-leer.de</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
     <t>lars.hanneken@stud.hs-emden-leer.de</t>
   </si>
   <si>
+    <t>Demonstator für einen Schrittmotor</t>
+  </si>
+  <si>
     <t>jannik.groenke@stud.hs-emden-leer.de</t>
   </si>
   <si>
@@ -221,43 +221,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>(+49)15902684305</t>
-  </si>
-  <si>
-    <t>Birkenweg 10</t>
-  </si>
-  <si>
-    <t>26903 Surwold</t>
-  </si>
-  <si>
-    <t>(+49)1629384026</t>
-  </si>
-  <si>
-    <t>Lessingstraße 25</t>
+    <t>Auf der Koppel 17</t>
   </si>
   <si>
     <t>26506 Norden</t>
-  </si>
-  <si>
-    <t>(+49)15206279684</t>
-  </si>
-  <si>
-    <t>(+49)21 123 456&gt;</t>
-  </si>
-  <si>
-    <t>(+49)21 807 1429</t>
-  </si>
-  <si>
-    <t>(+49)21 807 1428</t>
-  </si>
-  <si>
-    <t>A24-27</t>
-  </si>
-  <si>
-    <t>Group:</t>
-  </si>
-  <si>
-    <t>Demonstrator für einen Schrittmotor</t>
   </si>
 </sst>
 </file>
@@ -645,7 +612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -657,18 +626,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -677,7 +638,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -716,19 +677,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>7021861</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25F1C1B-DC8E-4D11-8B98-BE448F027028}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,18 +935,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -994,7 +947,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1033,19 +986,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>7021910</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1100,9 +1053,7 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
-        <v>36583</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1113,17 +1064,11 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1163,32 +1108,20 @@
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,18 +1224,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1311,7 +1236,7 @@
     </row>
     <row r="6" spans="1:5" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1350,16 +1275,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>7022006</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>59</v>
@@ -1389,7 +1314,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>45365</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1397,7 +1322,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>45453</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1421,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="9">
-        <v>35434</v>
+        <v>36335</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="21" x14ac:dyDescent="0.35">
@@ -1434,7 +1359,7 @@
         <v>5</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1442,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1483,29 +1408,23 @@
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B38">
+        <v>4915202880329</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B40" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF37D490-EF88-4641-9F9C-C020C6417340}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,18 +1527,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1628,7 +1539,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1667,19 +1578,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>7021960</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,9 +1645,7 @@
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
-        <v>36570</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
     <row r="25" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -1747,17 +1656,11 @@
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1797,32 +1700,20 @@
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,18 +1816,10 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1945,7 +1828,7 @@
     </row>
     <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1993,10 +1876,10 @@
         <v>7022071</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,32 +1997,20 @@
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">

--- a/author.xlsx
+++ b/author.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1EA94-191F-41EA-A71E-4EC0298E2690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85AB4D-43F4-4D03-B487-CB0E01D7EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4755" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33360" yWindow="1710" windowWidth="16620" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maik Theilmann" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Enno Stein" sheetId="6" r:id="rId4"/>
     <sheet name="Jan ter Veen" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
   <si>
     <t>Short Description</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>26506 Norden</t>
+  </si>
+  <si>
+    <t>A24-27: Demonstator für einen Schrittmotor</t>
   </si>
 </sst>
 </file>
@@ -612,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -721,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>45453</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25F1C1B-DC8E-4D11-8B98-BE448F027028}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>45453</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1210,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1314,7 +1317,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>45013</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>45092</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1513,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF37D490-EF88-4641-9F9C-C020C6417340}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1622,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>45453</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>45453</v>
+        <v>45463</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
